--- a/data/trans_dic/P1805_2016_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1805_2016_2023-Habitat-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005424732422206114</v>
+        <v>0.005492385545231498</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01515196668476407</v>
+        <v>0.01502018368960544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01626632446824207</v>
+        <v>0.01644901116044572</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01826900186760672</v>
+        <v>0.01738581243695734</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01318200011539158</v>
+        <v>0.0132932387002865</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01869877956061567</v>
+        <v>0.01897283612553537</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02313690380869274</v>
+        <v>0.02421838942039886</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04250728636178443</v>
+        <v>0.04417612584741277</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04394001218342679</v>
+        <v>0.04521055836171716</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03588286022262628</v>
+        <v>0.03571226262203676</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02999811680075461</v>
+        <v>0.03005861953377319</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03535694169068118</v>
+        <v>0.03419437932064882</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01000415973117858</v>
+        <v>0.009971549910747666</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01341778871900678</v>
+        <v>0.01183720665513428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02251837585527667</v>
+        <v>0.02226936201459978</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02688595995526038</v>
+        <v>0.02638673262393995</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01857362640654271</v>
+        <v>0.01770452706852638</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02264022928175367</v>
+        <v>0.02270418965627484</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02588337792682307</v>
+        <v>0.02656312254299247</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0371217290994795</v>
+        <v>0.03416483256921699</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04665147236675021</v>
+        <v>0.04591098239454854</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04695941625050141</v>
+        <v>0.04681981644399968</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03271769931565494</v>
+        <v>0.03107897324490682</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03803777563625355</v>
+        <v>0.03833220349008775</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006538115493821229</v>
+        <v>0.006784336122051187</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02251949309877383</v>
+        <v>0.02271126250608308</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01864181476795348</v>
+        <v>0.01841824948940006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03780965424637892</v>
+        <v>0.03564195820682598</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01452839313183358</v>
+        <v>0.01549086594362247</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03310099480493024</v>
+        <v>0.03466425878472304</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02423947760693856</v>
+        <v>0.02520955289379603</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05832725066772768</v>
+        <v>0.05550846550189726</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04316669897089766</v>
+        <v>0.0438348940871502</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07167133980111504</v>
+        <v>0.0712914679052481</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02969929927028146</v>
+        <v>0.03022648489132807</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05682527344780504</v>
+        <v>0.05984034582272543</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01779491066977085</v>
+        <v>0.01841881716692494</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03443939538387589</v>
+        <v>0.03280389605650114</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03912059381802181</v>
+        <v>0.03819986191610114</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04083158630908515</v>
+        <v>0.04078851129652405</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0319398407550819</v>
+        <v>0.03148623936692952</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04089369826148814</v>
+        <v>0.04081174320834639</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04042530939102598</v>
+        <v>0.04006501566827608</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06558453312001876</v>
+        <v>0.06415647276276848</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0699599476701382</v>
+        <v>0.0695478068390197</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06568693588670119</v>
+        <v>0.06565010437443496</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05026091497216971</v>
+        <v>0.05044425545337175</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06110552177545076</v>
+        <v>0.05990999925544594</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01378210242144679</v>
+        <v>0.01381486521932425</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0260022645803526</v>
+        <v>0.02671027860354879</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03097832295431817</v>
+        <v>0.03096975828224681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03665668370703861</v>
+        <v>0.0355555203766823</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02370652287993969</v>
+        <v>0.02350293450290672</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03322955044249112</v>
+        <v>0.0333710686419047</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02326835330569722</v>
+        <v>0.02332095191740951</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04118333009584633</v>
+        <v>0.04158450212502518</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04452888334923696</v>
+        <v>0.04470853205021531</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04866720368316724</v>
+        <v>0.04845278414953993</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03182202900836666</v>
+        <v>0.03188838294919832</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04285481048967529</v>
+        <v>0.043084504302183</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3661</v>
+        <v>3706</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10466</v>
+        <v>10375</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10945</v>
+        <v>11068</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13393</v>
+        <v>12746</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17765</v>
+        <v>17914</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>26624</v>
+        <v>27014</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15613</v>
+        <v>16343</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29360</v>
+        <v>30513</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29565</v>
+        <v>30419</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26306</v>
+        <v>26181</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>40427</v>
+        <v>40508</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50342</v>
+        <v>48687</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10229</v>
+        <v>10195</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14074</v>
+        <v>12416</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23485</v>
+        <v>23225</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>28791</v>
+        <v>28256</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>38361</v>
+        <v>36566</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>47992</v>
+        <v>48127</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26464</v>
+        <v>27159</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38938</v>
+        <v>35836</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>48653</v>
+        <v>47881</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>50286</v>
+        <v>50136</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>67573</v>
+        <v>64189</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>80631</v>
+        <v>81255</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4966</v>
+        <v>5153</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18085</v>
+        <v>18239</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14634</v>
+        <v>14459</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>30689</v>
+        <v>28929</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22440</v>
+        <v>23927</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>53449</v>
+        <v>55974</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18411</v>
+        <v>19148</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>46841</v>
+        <v>44577</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33886</v>
+        <v>34411</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>58173</v>
+        <v>57865</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>45872</v>
+        <v>46687</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>91758</v>
+        <v>96626</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16684</v>
+        <v>17269</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>34097</v>
+        <v>32478</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40833</v>
+        <v>39872</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>45664</v>
+        <v>45616</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>63284</v>
+        <v>62385</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>86221</v>
+        <v>86048</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37901</v>
+        <v>37564</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>64933</v>
+        <v>63519</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>73023</v>
+        <v>72593</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>73461</v>
+        <v>73420</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>99584</v>
+        <v>99948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>128836</v>
+        <v>126315</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>46781</v>
+        <v>46892</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>91860</v>
+        <v>94361</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>109804</v>
+        <v>109774</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>136875</v>
+        <v>132763</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>164497</v>
+        <v>163084</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>241470</v>
+        <v>242499</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>78981</v>
+        <v>79159</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>145491</v>
+        <v>146908</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>157834</v>
+        <v>158471</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>181722</v>
+        <v>180921</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>220810</v>
+        <v>221270</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>311414</v>
+        <v>313084</v>
       </c>
     </row>
     <row r="24">
